--- a/BluetoothLocator-main/other_data/距离测试.xlsx
+++ b/BluetoothLocator-main/other_data/距离测试.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="38">
   <si>
     <t>id</t>
   </si>
@@ -56,13 +56,79 @@
     <t>00000000024A</t>
   </si>
   <si>
+    <t>2025/07/25 14:58:17</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:20</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:47</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:49</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:50</t>
+  </si>
+  <si>
     <t>2M</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:51</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:53</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:54</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:55</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:56</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:57</t>
   </si>
   <si>
     <t>3M</t>
   </si>
   <si>
+    <t>2025/07/25 14:58:58</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:58:59</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:00</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:02</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:04</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:06</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:21</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:22</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:23</t>
+  </si>
+  <si>
     <t>4M</t>
+  </si>
+  <si>
+    <t>2025/07/25 14:59:24</t>
+  </si>
+  <si>
+    <t>2025/07/25 15:01:24</t>
   </si>
   <si>
     <t>5M</t>
@@ -90,7 +156,21 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,12 +517,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -563,143 +658,147 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1238,7 +1337,752 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>bluetooth_position_data!$I$2:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-61.0714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-57.3846153846154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-60.4705882352941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-68.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-77.9047619047619</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-73.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-80</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-80.1944444444444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-82.5384615384615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="588917670"/>
+        <c:axId val="81134148"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:delete val="1"/>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>bluetooth_position_data!$H$2:$H$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="588917670"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="81134148"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81134148"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588917670"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>bluetooth_position_data!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-56.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-58.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-63.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-66.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-71.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-71.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-73.15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-76.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-78.05</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-77.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="153016851"/>
+        <c:axId val="600988568"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="153016851"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="600988568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="600988568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="90200"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="153016851"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1783,6 +2627,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="10028">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst/>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="90200"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1805,11 +3659,71 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="7929245" y="30125670"/>
-        <a:ext cx="4828540" cy="2743200"/>
+        <a:ext cx="5244465" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238760</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2861310" y="2550160"/>
+        <a:ext cx="5244465" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495935</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>81280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502285</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>157480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="7734300" y="5059680"/>
+        <a:ext cx="4822825" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2076,10 +3990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2091,9 +4005,10 @@
     <col min="6" max="6" width="9.37272727272727" customWidth="1"/>
     <col min="7" max="7" width="17.1272727272727" customWidth="1"/>
     <col min="9" max="9" width="14"/>
+    <col min="13" max="13" width="14.9545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:16">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2112,8 +4027,26 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -2141,8 +4074,29 @@
       <c r="I2">
         <v>-61.0714285714286</v>
       </c>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2">
+        <v>-56.9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2167,8 +4121,29 @@
       <c r="I3">
         <v>-57.3846153846154</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="K3" s="3">
+        <v>4</v>
+      </c>
+      <c r="L3" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3">
+        <v>-58.8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2193,8 +4168,29 @@
       <c r="I4">
         <v>-60.4705882352941</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="K4" s="3">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>-63.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2219,8 +4215,29 @@
       <c r="I5">
         <v>-68.1875</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="K5" s="3">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>-66.65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>4</v>
       </c>
@@ -2245,8 +4262,29 @@
       <c r="I6">
         <v>-77.9047619047619</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="K6" s="3">
+        <v>7</v>
+      </c>
+      <c r="L6" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6">
+        <v>-71.2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>5</v>
       </c>
@@ -2271,8 +4309,29 @@
       <c r="I7">
         <v>-73.8</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="K7" s="3">
+        <v>8</v>
+      </c>
+      <c r="L7" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S7">
+        <v>-71.8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2297,8 +4356,29 @@
       <c r="I8">
         <v>-80</v>
       </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+      <c r="L8" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O8" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8">
+        <v>-73.15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2323,8 +4403,29 @@
       <c r="I9">
         <v>-80.1944444444444</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="K9" s="3">
+        <v>10</v>
+      </c>
+      <c r="L9" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N9" s="3">
+        <v>-61</v>
+      </c>
+      <c r="O9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9">
+        <v>-76.7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2349,8 +4450,29 @@
       <c r="I10">
         <v>-82.5384615384615</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="K10" s="3">
+        <v>11</v>
+      </c>
+      <c r="L10" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <v>-78.05</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2369,8 +4491,29 @@
       <c r="G11" s="1">
         <v>45863.4192708333</v>
       </c>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="K11" s="3">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O11" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>-77.85</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2389,8 +4532,26 @@
       <c r="G12" s="1">
         <v>45863.4192824074</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="K12" s="3">
+        <v>13</v>
+      </c>
+      <c r="L12" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N12" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2409,8 +4570,26 @@
       <c r="G13" s="1">
         <v>45863.4192939815</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="K13" s="3">
+        <v>14</v>
+      </c>
+      <c r="L13" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2429,8 +4608,26 @@
       <c r="G14" s="1">
         <v>45863.4193055556</v>
       </c>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="K14" s="3">
+        <v>15</v>
+      </c>
+      <c r="L14" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2449,10 +4646,28 @@
       <c r="G15" s="1">
         <v>45863.4193171296</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="K15" s="3">
+        <v>16</v>
+      </c>
+      <c r="L15" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O15" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -2472,8 +4687,26 @@
       <c r="G16" s="1">
         <v>45863.4195949074</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="K16" s="3">
+        <v>17</v>
+      </c>
+      <c r="L16" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N16" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O16" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2492,8 +4725,26 @@
       <c r="G17" s="1">
         <v>45863.4196064815</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="K17" s="3">
+        <v>18</v>
+      </c>
+      <c r="L17" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2512,8 +4763,26 @@
       <c r="G18" s="1">
         <v>45863.4196180556</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="K18" s="3">
+        <v>19</v>
+      </c>
+      <c r="L18" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2532,8 +4801,26 @@
       <c r="G19" s="1">
         <v>45863.4196296296</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="K19" s="3">
+        <v>20</v>
+      </c>
+      <c r="L19" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2552,8 +4839,26 @@
       <c r="G20" s="1">
         <v>45863.4196412037</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="K20" s="3">
+        <v>21</v>
+      </c>
+      <c r="L20" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2572,8 +4877,26 @@
       <c r="G21" s="1">
         <v>45863.4196527778</v>
       </c>
-    </row>
-    <row r="22" spans="2:7">
+      <c r="K21" s="3">
+        <v>22</v>
+      </c>
+      <c r="L21" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2592,8 +4915,26 @@
       <c r="G22" s="1">
         <v>45863.4196643519</v>
       </c>
-    </row>
-    <row r="23" spans="2:7">
+      <c r="K22" s="3">
+        <v>23</v>
+      </c>
+      <c r="L22" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N22" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2612,8 +4953,26 @@
       <c r="G23" s="1">
         <v>45863.4196759259</v>
       </c>
-    </row>
-    <row r="24" spans="2:7">
+      <c r="K23" s="3">
+        <v>24</v>
+      </c>
+      <c r="L23" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2632,8 +4991,26 @@
       <c r="G24" s="1">
         <v>45863.4196875</v>
       </c>
-    </row>
-    <row r="25" spans="2:7">
+      <c r="K24" s="3">
+        <v>25</v>
+      </c>
+      <c r="L24" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2652,8 +5029,26 @@
       <c r="G25" s="1">
         <v>45863.4196990741</v>
       </c>
-    </row>
-    <row r="26" spans="2:7">
+      <c r="K25" s="3">
+        <v>26</v>
+      </c>
+      <c r="L25" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2672,8 +5067,26 @@
       <c r="G26" s="1">
         <v>45863.4197106482</v>
       </c>
-    </row>
-    <row r="27" spans="2:7">
+      <c r="K26" s="3">
+        <v>27</v>
+      </c>
+      <c r="L26" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2692,8 +5105,26 @@
       <c r="G27" s="1">
         <v>45863.4197222222</v>
       </c>
-    </row>
-    <row r="28" spans="2:7">
+      <c r="K27" s="3">
+        <v>28</v>
+      </c>
+      <c r="L27" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2712,10 +5143,28 @@
       <c r="G28" s="1">
         <v>45863.4197337963</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="K28" s="3">
+        <v>29</v>
+      </c>
+      <c r="L28" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -2735,8 +5184,26 @@
       <c r="G29" s="1">
         <v>45863.4201041667</v>
       </c>
-    </row>
-    <row r="30" spans="2:7">
+      <c r="K29" s="3">
+        <v>30</v>
+      </c>
+      <c r="L29" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N29" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
       <c r="B30">
         <v>28</v>
       </c>
@@ -2755,8 +5222,26 @@
       <c r="G30" s="1">
         <v>45863.4201157407</v>
       </c>
-    </row>
-    <row r="31" spans="2:7">
+      <c r="K30" s="3">
+        <v>31</v>
+      </c>
+      <c r="L30" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
       <c r="B31">
         <v>29</v>
       </c>
@@ -2775,8 +5260,26 @@
       <c r="G31" s="1">
         <v>45863.4201273148</v>
       </c>
-    </row>
-    <row r="32" spans="2:7">
+      <c r="K31" s="3">
+        <v>32</v>
+      </c>
+      <c r="L31" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16">
       <c r="B32">
         <v>30</v>
       </c>
@@ -2795,8 +5298,26 @@
       <c r="G32" s="1">
         <v>45863.4201388889</v>
       </c>
-    </row>
-    <row r="33" spans="2:7">
+      <c r="K32" s="3">
+        <v>33</v>
+      </c>
+      <c r="L32" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16">
       <c r="B33">
         <v>31</v>
       </c>
@@ -2815,8 +5336,26 @@
       <c r="G33" s="1">
         <v>45863.420150463</v>
       </c>
-    </row>
-    <row r="34" spans="2:7">
+      <c r="K33" s="3">
+        <v>34</v>
+      </c>
+      <c r="L33" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16">
       <c r="B34">
         <v>32</v>
       </c>
@@ -2835,8 +5374,26 @@
       <c r="G34" s="1">
         <v>45863.420162037</v>
       </c>
-    </row>
-    <row r="35" spans="2:7">
+      <c r="K34" s="3">
+        <v>36</v>
+      </c>
+      <c r="L34" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N34" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16">
       <c r="B35">
         <v>33</v>
       </c>
@@ -2855,8 +5412,26 @@
       <c r="G35" s="1">
         <v>45863.4201736111</v>
       </c>
-    </row>
-    <row r="36" spans="2:7">
+      <c r="K35" s="3">
+        <v>37</v>
+      </c>
+      <c r="L35" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-58</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16">
       <c r="B36">
         <v>34</v>
       </c>
@@ -2875,8 +5450,26 @@
       <c r="G36" s="1">
         <v>45863.4201851852</v>
       </c>
-    </row>
-    <row r="37" spans="2:7">
+      <c r="K36" s="3">
+        <v>38</v>
+      </c>
+      <c r="L36" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N36" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16">
       <c r="B37">
         <v>35</v>
       </c>
@@ -2895,8 +5488,26 @@
       <c r="G37" s="1">
         <v>45863.4201967593</v>
       </c>
-    </row>
-    <row r="38" spans="2:7">
+      <c r="K37" s="3">
+        <v>39</v>
+      </c>
+      <c r="L37" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16">
       <c r="B38">
         <v>36</v>
       </c>
@@ -2915,8 +5526,26 @@
       <c r="G38" s="1">
         <v>45863.4202083333</v>
       </c>
-    </row>
-    <row r="39" spans="2:7">
+      <c r="K38" s="3">
+        <v>40</v>
+      </c>
+      <c r="L38" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16">
       <c r="B39">
         <v>37</v>
       </c>
@@ -2935,8 +5564,26 @@
       <c r="G39" s="1">
         <v>45863.4202199074</v>
       </c>
-    </row>
-    <row r="40" spans="2:7">
+      <c r="K39" s="3">
+        <v>41</v>
+      </c>
+      <c r="L39" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N39" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16">
       <c r="B40">
         <v>38</v>
       </c>
@@ -2955,8 +5602,26 @@
       <c r="G40" s="1">
         <v>45863.4202314815</v>
       </c>
-    </row>
-    <row r="41" spans="2:7">
+      <c r="K40" s="3">
+        <v>42</v>
+      </c>
+      <c r="L40" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N40" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16">
       <c r="B41">
         <v>39</v>
       </c>
@@ -2975,8 +5640,26 @@
       <c r="G41" s="1">
         <v>45863.4202430556</v>
       </c>
-    </row>
-    <row r="42" spans="2:7">
+      <c r="K41" s="3">
+        <v>43</v>
+      </c>
+      <c r="L41" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N41" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16">
       <c r="B42">
         <v>40</v>
       </c>
@@ -2995,8 +5678,26 @@
       <c r="G42" s="1">
         <v>45863.4202546296</v>
       </c>
-    </row>
-    <row r="43" spans="2:7">
+      <c r="K42" s="3">
+        <v>44</v>
+      </c>
+      <c r="L42" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16">
       <c r="B43">
         <v>41</v>
       </c>
@@ -3015,8 +5716,26 @@
       <c r="G43" s="1">
         <v>45863.4202662037</v>
       </c>
-    </row>
-    <row r="44" spans="2:7">
+      <c r="K43" s="3">
+        <v>46</v>
+      </c>
+      <c r="L43" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N43" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16">
       <c r="B44">
         <v>42</v>
       </c>
@@ -3035,8 +5754,26 @@
       <c r="G44" s="1">
         <v>45863.4202777778</v>
       </c>
-    </row>
-    <row r="45" spans="2:7">
+      <c r="K44" s="3">
+        <v>47</v>
+      </c>
+      <c r="L44" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N44" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16">
       <c r="B45">
         <v>43</v>
       </c>
@@ -3055,10 +5792,28 @@
       <c r="G45" s="1">
         <v>45863.4202893519</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="K45" s="3">
+        <v>48</v>
+      </c>
+      <c r="L45" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -3078,8 +5833,26 @@
       <c r="G46" s="1">
         <v>45863.4204861111</v>
       </c>
-    </row>
-    <row r="47" spans="2:7">
+      <c r="K46" s="3">
+        <v>49</v>
+      </c>
+      <c r="L46" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N46" s="3">
+        <v>-56</v>
+      </c>
+      <c r="O46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16">
       <c r="B47">
         <v>45</v>
       </c>
@@ -3098,8 +5871,26 @@
       <c r="G47" s="1">
         <v>45863.4204976852</v>
       </c>
-    </row>
-    <row r="48" spans="2:7">
+      <c r="K47" s="3">
+        <v>50</v>
+      </c>
+      <c r="L47" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N47" s="3">
+        <v>-59</v>
+      </c>
+      <c r="O47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16">
       <c r="B48">
         <v>46</v>
       </c>
@@ -3118,8 +5909,26 @@
       <c r="G48" s="1">
         <v>45863.4205092593</v>
       </c>
-    </row>
-    <row r="49" spans="2:7">
+      <c r="K48" s="3">
+        <v>51</v>
+      </c>
+      <c r="L48" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N48" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16">
       <c r="B49">
         <v>47</v>
       </c>
@@ -3138,8 +5947,26 @@
       <c r="G49" s="1">
         <v>45863.4205208333</v>
       </c>
-    </row>
-    <row r="50" spans="2:7">
+      <c r="K49" s="3">
+        <v>52</v>
+      </c>
+      <c r="L49" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N49" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16">
       <c r="B50">
         <v>48</v>
       </c>
@@ -3158,8 +5985,26 @@
       <c r="G50" s="1">
         <v>45863.4205324074</v>
       </c>
-    </row>
-    <row r="51" spans="2:7">
+      <c r="K50" s="3">
+        <v>53</v>
+      </c>
+      <c r="L50" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N50" s="3">
+        <v>-55</v>
+      </c>
+      <c r="O50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16">
       <c r="B51">
         <v>49</v>
       </c>
@@ -3177,6 +6022,24 @@
       </c>
       <c r="G51" s="1">
         <v>45863.4205439815</v>
+      </c>
+      <c r="K51" s="3">
+        <v>54</v>
+      </c>
+      <c r="L51" s="3">
+        <v>28907856482</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N51" s="3">
+        <v>-57</v>
+      </c>
+      <c r="O51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="2:7">
@@ -3381,7 +6244,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B62">
         <v>62</v>
@@ -3804,7 +6667,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B83">
         <v>86</v>
@@ -4407,7 +7270,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B113">
         <v>116</v>
@@ -4950,7 +7813,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B140">
         <v>143</v>
@@ -5673,7 +8536,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B176">
         <v>179</v>
@@ -6204,7 +9067,7 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J$1:XFD$1048576 B$1:G$1048576 H1:H175 I1:I15 H177:I1048576 I47:I61 I84:I112 I114:I139 I141:I175 I30:I45 I63:I82 I17:I28">
+  <conditionalFormatting sqref="T$1:XFD$1048576 J$1:R$1048576 S1 S3:S1048576 I63:I82 I17:I28 B$1:G$1048576 H1:H175 I1:I15 H177:I1048576 I47:I61 I84:I112 I114:I139 I141:I175 I30:I45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"00000000024A"</formula>
     </cfRule>
